--- a/src/assets/files/DepartmentUpload.xlsx
+++ b/src/assets/files/DepartmentUpload.xlsx
@@ -42,14 +42,14 @@
     <t>Good</t>
   </si>
   <si>
-    <t>E0001</t>
+    <t>sample@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,6 +77,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -152,23 +160,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -565,7 +578,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,16 +605,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -615,27 +628,30 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/assets/files/DepartmentUpload.xlsx
+++ b/src/assets/files/DepartmentUpload.xlsx
@@ -33,9 +33,6 @@
     <t>Department Head</t>
   </si>
   <si>
-    <t xml:space="preserve">D001 </t>
-  </si>
-  <si>
     <t>HR Department</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>sample@gmail.com</t>
+  </si>
+  <si>
+    <t>D001</t>
   </si>
 </sst>
 </file>
@@ -96,14 +96,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor theme="4"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -169,16 +169,16 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,53 +605,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/assets/files/DepartmentUpload.xlsx
+++ b/src/assets/files/DepartmentUpload.xlsx
@@ -33,9 +33,6 @@
     <t>Department Head</t>
   </si>
   <si>
-    <t>HR Department</t>
-  </si>
-  <si>
     <t>Good</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>D001</t>
+  </si>
+  <si>
+    <t>Sample Department</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,16 +620,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/src/assets/files/DepartmentUpload.xlsx
+++ b/src/assets/files/DepartmentUpload.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -33,61 +28,206 @@
     <t>Department Head</t>
   </si>
   <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>Sample Department</t>
+  </si>
+  <si>
     <t>Good</t>
   </si>
   <si>
     <t>sample@gmail.com</t>
-  </si>
-  <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>Sample Department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +246,194 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -159,111 +485,376 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF808080"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDCE6F2"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF95B3D7"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF4F81BD"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00DCE6F2"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0095B3D7"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="004F81BD"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -274,11 +865,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Department Code"/>
@@ -569,67 +1165,67 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="15.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="13.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="14.5714285714286" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="1021" width="8.5703125" customWidth="1"/>
-    <col min="1022" max="1025" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="17.1428571428571" customWidth="1"/>
+    <col min="17" max="18" width="11.8571428571429" customWidth="1"/>
+    <col min="19" max="1021" width="8.57142857142857" customWidth="1"/>
+    <col min="1022" max="1025" width="9.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -639,16 +1235,17 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/assets/files/DepartmentUpload.xlsx
+++ b/src/assets/files/DepartmentUpload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Department Code</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Department Head</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
   </si>
   <si>
     <t>D001</t>
@@ -45,12 +48,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -61,6 +64,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -84,6 +94,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,15 +110,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,47 +133,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,16 +162,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,38 +192,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,25 +252,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,163 +378,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,45 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -549,6 +520,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -566,6 +561,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -574,174 +593,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -874,13 +887,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Department Code"/>
     <tableColumn id="2" name="Department Name"/>
     <tableColumn id="3" name="Description"/>
     <tableColumn id="4" name="Department Head"/>
+    <tableColumn id="5" name="Branch Code"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1171,19 +1185,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="23.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="15.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -1200,7 +1214,7 @@
     <col min="1022" max="1025" width="9.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,32 +1227,35 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
